--- a/datasheets/genomicVariations.xlsx
+++ b/datasheets/genomicVariations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oriol/Desktop/beacon-ri-tools-v2/schemas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oriol/Desktop/beacon-ri-tools-v2/datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6080726A-00D9-1441-94B5-B71AECBCF049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BD59BF-B072-2B4E-9E6A-2BA902D01640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{1B322E1C-8083-5E49-BE5E-9412AC20B682}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>caseLevelData_alleleOrigin_id</t>
   </si>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0AE890-5246-2247-9C9D-3CEC7DD83E1E}">
   <dimension ref="A1:BZ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2:CA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -687,302 +687,305 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AL1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM1" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AN1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AO1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AP1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AQ1" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AR1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AS1" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="AT1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AU1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AV1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AW1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AX1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AY1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AZ1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="BA1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="BB1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BC1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BD1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BE1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BF1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BG1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BH1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BI1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BJ1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BK1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BL1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BM1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BN1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BO1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BP1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BQ1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BR1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BS1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BT1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BU1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BV1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BW1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BX1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BY1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BZ1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:78" ht="18" x14ac:dyDescent="0.25">
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="AB2" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="AC2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="AQ2" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AR2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS2" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="AW2" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="AX2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="BW2" s="1" t="s">
+      <c r="BV2" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="BX2" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="BY2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BZ2" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:78" ht="18" x14ac:dyDescent="0.25">
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="AB3" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="AC3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="AQ3" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AR3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS3" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="AW3" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="AX3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="BW3" s="1" t="s">
+      <c r="BV3" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="BX3" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="BY3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BZ3" s="1" t="s">
         <v>84</v>
       </c>
     </row>
